--- a/biology/Zoologie/Engoulevent_du_Mozambique/Engoulevent_du_Mozambique.xlsx
+++ b/biology/Zoologie/Engoulevent_du_Mozambique/Engoulevent_du_Mozambique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caprimulgus fossii
-L'Engoulevent du Mozambique[1],[2] (Caprimulgus fossii) est une espèce d'oiseaux de la famille des Caprimulgidae.
+L'Engoulevent du Mozambique, (Caprimulgus fossii) est une espèce d'oiseaux de la famille des Caprimulgidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit en Afrique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit en Afrique.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,11 +585,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Caprimulgus fossii Hartlaub, 1857[1].
-Liste des sous-espèces
-Selon GBIF       (27 décembre 2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Caprimulgus fossii Hartlaub, 1857.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Engoulevent_du_Mozambique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Engoulevent_du_Mozambique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 décembre 2023) :
 Caprimulgus fossii subsp. fossii
 Caprimulgus fossii subsp. griseoplurus Clancey, 1965
 Caprimulgus fossii subsp. welwitschii Barboza du Bocage, 1867</t>
